--- a/AfDD_2024_Annex_Table_Tab21.xlsx
+++ b/AfDD_2024_Annex_Table_Tab21.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1864C7AF-D748-45D0-9E0F-3DEE717CA9B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{55D2A030-2D19-4A16-8CB3-4ECC8C42A833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{7C12B81F-A406-41CC-916D-EAE95DCF374D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B4B8479F-046B-4C3A-A6EF-245F49A9C6DB}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab21" sheetId="1" r:id="rId1"/>
@@ -1479,7 +1479,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{147BD792-6837-4A2F-BD84-2594DE32FEEA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC25C65D-3583-4641-A400-30C642A60F81}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -5629,11 +5629,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{27DAD209-EC56-4568-A858-FF1DEF893E6F}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{C23CC89D-AE75-4C0C-895D-971B7C412723}"/>
-    <hyperlink ref="B112" r:id="rId3" xr:uid="{154A2755-7374-4595-A5DA-352A34AD4976}"/>
-    <hyperlink ref="B107" r:id="rId4" xr:uid="{6B7A8B57-DDDA-4110-924A-3F01ADCF5502}"/>
-    <hyperlink ref="B111" r:id="rId5" xr:uid="{1EAF37CE-0DBF-4285-87B3-3ED10970C10C}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{053111E0-03F5-485D-B1FF-8F6BBC0727E2}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{6F8F446D-1887-472D-9464-A1FE89EB4824}"/>
+    <hyperlink ref="B112" r:id="rId3" xr:uid="{7589383B-AD83-494C-A227-D654260315E3}"/>
+    <hyperlink ref="B107" r:id="rId4" xr:uid="{AAC72501-61B3-4FFC-A2C2-1721475F516B}"/>
+    <hyperlink ref="B111" r:id="rId5" xr:uid="{C0880277-39FD-42B1-8C42-969089331BAC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="47" fitToWidth="0" orientation="portrait" r:id="rId6"/>

--- a/AfDD_2024_Annex_Table_Tab21.xlsx
+++ b/AfDD_2024_Annex_Table_Tab21.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{55D2A030-2D19-4A16-8CB3-4ECC8C42A833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{43189037-586F-43B3-B958-797DC4240A55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B4B8479F-046B-4C3A-A6EF-245F49A9C6DB}"/>
+    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{2E64C75B-1ED4-43E4-A1E1-947E2F5C22FB}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab21" sheetId="1" r:id="rId1"/>
@@ -1479,7 +1479,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC25C65D-3583-4641-A400-30C642A60F81}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6716A4C-8A32-4E50-A61A-995AAB7B2DDD}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -5623,17 +5623,17 @@
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B112" s="2" t="s">
+      <c r="B112" s="84" t="s">
         <v>173</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{053111E0-03F5-485D-B1FF-8F6BBC0727E2}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{6F8F446D-1887-472D-9464-A1FE89EB4824}"/>
-    <hyperlink ref="B112" r:id="rId3" xr:uid="{7589383B-AD83-494C-A227-D654260315E3}"/>
-    <hyperlink ref="B107" r:id="rId4" xr:uid="{AAC72501-61B3-4FFC-A2C2-1721475F516B}"/>
-    <hyperlink ref="B111" r:id="rId5" xr:uid="{C0880277-39FD-42B1-8C42-969089331BAC}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{62511393-7F4F-4741-B930-F7E4118FF43F}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{7F8155E2-FEB7-4AF5-BCEE-096054C741C6}"/>
+    <hyperlink ref="B107" r:id="rId3" xr:uid="{89B4DEC0-09C0-439B-B8D6-B60B01A885AC}"/>
+    <hyperlink ref="B112" r:id="rId4" xr:uid="{CD9F2B35-35BC-4AFE-A11B-10E3291D1FD8}"/>
+    <hyperlink ref="B111" r:id="rId5" xr:uid="{FA9D9CB2-8A35-4A36-AD89-A74FEB8A7859}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="47" fitToWidth="0" orientation="portrait" r:id="rId6"/>

--- a/AfDD_2024_Annex_Table_Tab21.xlsx
+++ b/AfDD_2024_Annex_Table_Tab21.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{43189037-586F-43B3-B958-797DC4240A55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6FA7F2C1-2B8B-4334-8332-859AD6D157D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{2E64C75B-1ED4-43E4-A1E1-947E2F5C22FB}"/>
+    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{0F9B0059-A92D-4DAD-A1EC-8E917B3F426B}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab21" sheetId="1" r:id="rId1"/>
@@ -1479,7 +1479,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6716A4C-8A32-4E50-A61A-995AAB7B2DDD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{815B644F-8AA9-4DBE-ADB7-D596024197EB}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -5629,11 +5629,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{62511393-7F4F-4741-B930-F7E4118FF43F}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{7F8155E2-FEB7-4AF5-BCEE-096054C741C6}"/>
-    <hyperlink ref="B107" r:id="rId3" xr:uid="{89B4DEC0-09C0-439B-B8D6-B60B01A885AC}"/>
-    <hyperlink ref="B112" r:id="rId4" xr:uid="{CD9F2B35-35BC-4AFE-A11B-10E3291D1FD8}"/>
-    <hyperlink ref="B111" r:id="rId5" xr:uid="{FA9D9CB2-8A35-4A36-AD89-A74FEB8A7859}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{21D65F78-47CC-460E-933B-E2936AF4C01C}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{D9074E9D-7C08-4FD8-A2AB-CD475A1FF7D3}"/>
+    <hyperlink ref="B107" r:id="rId3" xr:uid="{D458F654-2AC5-4B3F-8B2F-0EDF8505C417}"/>
+    <hyperlink ref="B112" r:id="rId4" xr:uid="{15FF60E4-6A2E-4594-A760-DB0756AA4D3D}"/>
+    <hyperlink ref="B111" r:id="rId5" xr:uid="{D697D947-3B1E-40FB-AE35-997C65FF09B0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="47" fitToWidth="0" orientation="portrait" r:id="rId6"/>
